--- a/Small Instances/Small1.xlsx
+++ b/Small Instances/Small1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacobnitter/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shusheny\samkjoring2022\Small Instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5112439-FE8E-5047-803F-64201318B211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3711C447-A2C6-46E7-ACF8-C0093D7D94C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="520" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Small" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,7 @@
     <sheet name="Medium" sheetId="3" r:id="rId3"/>
     <sheet name="Large" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -998,24 +995,24 @@
   <dimension ref="A1:AB931"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" customWidth="1"/>
-    <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="16.83203125" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" customWidth="1"/>
-    <col min="10" max="11" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.6640625" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" customWidth="1"/>
-    <col min="19" max="19" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
+    <col min="10" max="11" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="19" max="19" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1059,56 +1056,56 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B2" s="9" t="str">
         <f ca="1">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Knappskog</v>
+        <v>Foldnes</v>
       </c>
       <c r="C2" s="9">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0559289999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D2" s="4">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.382877999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E2" s="23">
         <f t="shared" ref="E2:F2" ca="1" si="0">C2*111.021</f>
-        <v>561.31429350899998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F2" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G2" s="9" t="str" cm="1">
         <f t="array" aca="1" ref="G2" ca="1">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H2" s="6">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I2" s="8">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J2" s="24">
         <f t="shared" ref="J2:K2" ca="1" si="1">H2*111.021</f>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K2" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="M2" s="9" cm="1">
         <f t="array" aca="1" ref="M2" ca="1">_xlfn.XLOOKUP(B2,$R$19:$R$46,_xlfn.XLOOKUP(G2,$S$18:$V$18,$S$19:$V$46))*2</f>
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="N2" s="3">
         <v>4</v>
@@ -1133,49 +1130,49 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B3" s="9" t="str">
         <f ca="1">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Knappskog</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C3" s="9">
         <f ca="1">_xlfn.XLOOKUP(B3,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0559289999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D3" s="4">
         <f ca="1">_xlfn.XLOOKUP(B3,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.382877999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E3" s="23">
         <f t="shared" ref="E3" ca="1" si="2">C3*111.021</f>
-        <v>561.31429350899998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F3" s="23">
         <f ca="1">D3*111.021</f>
-        <v>6703.7674984380001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G3" s="9" t="str">
         <f ca="1">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H3" s="6">
         <f ca="1">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I3" s="8">
         <f ca="1">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J3" s="24">
         <f t="shared" ref="J3:K3" ca="1" si="3">H3*111.021</f>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K3" s="24">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>22</v>
@@ -1207,7 +1204,7 @@
         <v>60.395409000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -1244,7 +1241,7 @@
         <v>60.379098999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -1281,7 +1278,7 @@
         <v>60.290962</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -1318,7 +1315,7 @@
         <v>60.363500999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -1346,7 +1343,7 @@
         <v>60.356560999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -1374,7 +1371,7 @@
         <v>60.368082999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -1402,7 +1399,7 @@
         <v>60.354084999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -1430,7 +1427,7 @@
         <v>60.390343000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -1459,7 +1456,7 @@
         <v>60.375988</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="R12" s="61"/>
       <c r="S12" s="61"/>
       <c r="T12" s="61"/>
@@ -1473,7 +1470,7 @@
         <v>60.354616</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -1488,7 +1485,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="60"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -1503,7 +1500,7 @@
       <c r="L15" s="3"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="60"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -1518,7 +1515,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="9"/>
     </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="60"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -1533,7 +1530,7 @@
       <c r="L17" s="3"/>
       <c r="M17" s="9"/>
     </row>
-    <row r="18" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="60"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -1561,7 +1558,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="60"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -1591,7 +1588,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="60"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -1621,7 +1618,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="60"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -1653,7 +1650,7 @@
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
     </row>
-    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="60"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -1685,7 +1682,7 @@
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
     </row>
-    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="60"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -1717,7 +1714,7 @@
       <c r="Y23" s="3"/>
       <c r="Z23" s="9"/>
     </row>
-    <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="60"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -1750,7 +1747,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="60"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -1783,7 +1780,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="60"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -1816,7 +1813,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" s="60"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -1849,7 +1846,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="60"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -1882,7 +1879,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="60"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -1915,7 +1912,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="60"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -1948,7 +1945,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" s="60"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -1981,7 +1978,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" s="60"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -2014,7 +2011,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" s="60"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -2045,7 +2042,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="60"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -2078,7 +2075,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" s="60"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -2111,7 +2108,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" s="60"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -2144,7 +2141,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="60"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -2177,7 +2174,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" s="60"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -2210,7 +2207,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" s="60"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -2241,7 +2238,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" s="60"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -2274,7 +2271,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" s="60"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -2307,7 +2304,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" s="60"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -2340,7 +2337,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" s="60"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -2373,7 +2370,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="R44" s="12" t="s">
         <v>52</v>
@@ -2394,7 +2391,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R45" s="12" t="s">
         <v>31</v>
       </c>
@@ -2414,7 +2411,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R46" s="58" t="s">
         <v>25</v>
       </c>
@@ -2434,48 +2431,48 @@
         <v>34</v>
       </c>
     </row>
-    <row r="50" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="889" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="889" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B889" s="60"/>
     </row>
-    <row r="931" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="931" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2490,7 +2487,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2505,7 +2502,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2520,14 +2517,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="20.5" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
@@ -2547,7 +2544,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>56</v>
       </c>
